--- a/task_list.xlsx
+++ b/task_list.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Николай\СУ\Извличане на информация\Проект\repo\dissertations_search_engine\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,90 +24,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">Task ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+  <si>
+    <t>Task ID</t>
+  </si>
+  <si>
+    <t>Task Name</t>
   </si>
   <si>
     <t xml:space="preserve"> Task Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Assignee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relates To</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прочитане на файлове</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Да се прочетат тектови файлове в следните формати: pdf, docx, txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Todo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Индексиране</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Да се индексират и токенизират вече парснатите файлове</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ванката</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разработка на интерфейс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Да се разработи потребителски интерфейс на търсачката: 
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>Relates To</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Прочитане на файлове</t>
+  </si>
+  <si>
+    <t>Да се прочетат тектови файлове в следните формати: pdf, docx, txt</t>
+  </si>
+  <si>
+    <t>Ники</t>
+  </si>
+  <si>
+    <t>Todo</t>
+  </si>
+  <si>
+    <t>Индексиране</t>
+  </si>
+  <si>
+    <t>Да се индексират и токенизират вече парснатите файлове</t>
+  </si>
+  <si>
+    <t>Ванката</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Разработка на интерфейс</t>
+  </si>
+  <si>
+    <t>Да се разработи потребителски интерфейс на търсачката: 
 - бутони
 - поле за търсене
 - превю на част от документ</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -124,76 +112,80 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -252,30 +244,304 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="16.26"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -295,8 +561,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -313,8 +579,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -326,15 +592,15 @@
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -346,26 +612,27 @@
       <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F1:F1004" type="list">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="F1:F1004">
       <formula1>"Todo,In Progress,Testing,Done,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D1:D1004" type="list">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D1:D1004">
       <formula1>"Ванката,Ники"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/task_list.xlsx
+++ b/task_list.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Николай\СУ\Извличане на информация\Проект\repo\dissertations_search_engine\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,69 +24,130 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">Task ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Task Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+  <si>
+    <t>Task ID</t>
+  </si>
+  <si>
+    <t>Task Name</t>
   </si>
   <si>
     <t xml:space="preserve"> Task Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Assignee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relates To</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прочитане на файлове</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Да се прочетат тектови файлове в следните формати: pdf, docx, txt
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>Relates To</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Прочитане на файлове</t>
+  </si>
+  <si>
+    <t>Да се прочетат тектови файлове в следните формати: pdf, docx, txt
 - pdf – прочетен</t>
   </si>
   <si>
-    <t xml:space="preserve">Ники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Индексиране</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Да се индексират и токенизират вече парснатите файлове</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ванката</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разработка на интерфейс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Да се разработи потребителски интерфейс на търсачката: 
+    <t>Ники</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Индексиране</t>
+  </si>
+  <si>
+    <t>Да се индексират и токенизират вече парснатите файлове</t>
+  </si>
+  <si>
+    <t>Ванката</t>
+  </si>
+  <si>
+    <t>Разработка на интерфейс</t>
+  </si>
+  <si>
+    <t>Да се разработи потребителски интерфейс на търсачката: 
 - бутони
 - поле за търсене
 - превю на част от документ</t>
   </si>
   <si>
-    <t xml:space="preserve">Test</t>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Разработка на функции</t>
+  </si>
+  <si>
+    <t>Написване на клас word</t>
+  </si>
+  <si>
+    <t>Класът има член променливи:
+1. Дума (тип String)
+2. Размер на шрифта.
+3. Стил (boolean масив с 5 елемента 
+             - Индекс 0 - Курсив (Италик)
+             - Индекс 1 - Удебелен (Болд)
+             - Индекс 2 - Подчертан
+             - Индекс 3 - Горен индекс
+             - Индекс 4 - Долен индекс)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Да се разработят следните функции: </t>
+  </si>
+  <si>
+    <t>3. Функция която прочита думи от txt файл и ги поставя в променлива от тип list. Функцията приема като аргументи - 
+               1. Път до файла (String).
+               2. Списък в който да попълни думите.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Функция която прочита файл и поставя думите в инстанция на  структура (или клас) от тип word и попълва нейните полета. Функцията приема като аргументи -
+               1. Формат на файла (doc, docx, pdf, txt) - кодиран като enumeration, 
+               2. Път до файла (String), 
+               3. Брой на страници - при txt = 1) 
+Функцията връща стойност от тип enumeration (0 - Успех, 1 - Неуспешно прочитане на файла, 2 - Страниците на файла са &lt; Брой на страници. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Функция дава информация за броят думи в текст (идеята е текста да бъде извлечен от файл). Приема като аргументи - 
+               1. Път до файла (String)
+               2. Брой думи (int)
+Функцията връща 0 - Успех, 1 - Неуспех </t>
+  </si>
+  <si>
+    <t>4. Функция която търси дума (само първата и поява) в текст и извлича n на брой двойки думи след нея. Функцията приема като аргументи - 
+               1. Текст (String)
+               2. Дума, която да се търси. (String)
+               3. n - броя двойки (int)
+Функцията връща стойност 0 - ако е открила думата, 1 - при грешка, 2 - ако думата не е открита в текста.</t>
+  </si>
+  <si>
+    <t>5. Функция която търси фраза в текст. Функцията приема като аргументи - 
+               1. Текст (String).
+               2. Списък с фрази (list от String).
+               3. Откритата фраза. (Връща празен стринг ако не открие фразата)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Функция </t>
+  </si>
+  <si>
+    <t>Написване на клас project</t>
+  </si>
+  <si>
+    <t>Класът има член променливи:
+1. Автор (тип String)
+2. Тема (тип String).
+3. Факултетен номер (String)
+4. Университет (тип String)
+5. Сложност (Enum)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -90,22 +155,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -127,76 +177,90 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -255,30 +319,304 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="61.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="16.29"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -298,8 +636,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -316,8 +654,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -329,15 +667,15 @@
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -356,21 +694,94 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+  </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F1:F1004" type="list">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="F1:F1005">
       <formula1>"Todo,In Progress,Testing,Done,"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D1:D1004" type="list">
+    <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="D1:D1005">
       <formula1>"Ванката,Ники"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/task_list.xlsx
+++ b/task_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Task ID</t>
   </si>
@@ -129,9 +129,6 @@
                3. Откритата фраза. (Връща празен стринг ако не открие фразата)</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Функция </t>
-  </si>
-  <si>
     <t>Написване на клас project</t>
   </si>
   <si>
@@ -141,6 +138,12 @@
 3. Факултетен номер (String)
 4. Университет (тип String)
 5. Сложност (Enum)</t>
+  </si>
+  <si>
+    <t>6. Функция която връща фраза, съдържаща думи</t>
+  </si>
+  <si>
+    <t>Информацията която се извлича за автор, факултетен номер и Университет се записва в структура (клас) със съответните полета и се замества в текста извлечен от първата страница на всеки документ с \n (символа за нов ред). След това в този текст се търсят ключови фрази "на тема", "тема на проекта", "тема на курсовия проект", "тема на курсовата работа", "тема на дипломната работа", "тема на преддипломния проект", "тема на преддипломната работа" и др И се извлича всичко след тях докато не се стигне до следните стоп фрази "\n\n" (!Независимо колко интервала има между тях - използвай невронната мрежа - PosTag), "по дисциплината", "разработен за" и др.</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +176,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
         <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -203,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -227,6 +236,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -694,80 +704,85 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="2"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+    <row r="42" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>4</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B44" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="3" t="s">
+    <row r="45" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="3" t="s">
+    <row r="46" spans="1:3" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="C10" s="6" t="s">
+    <row r="47" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="C47" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="C11" s="6" t="s">
+    <row r="48" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="C48" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="C12" s="6" t="s">
+    <row r="49" spans="3:3" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="C49" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="6" t="s">
-        <v>25</v>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="B44:B46"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="F1:F1005">
